--- a/template/sampleall.xlsx
+++ b/template/sampleall.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B9910D-87D7-4C24-81F4-991FD688949C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -551,9 +552,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -581,60 +639,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,11 +648,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,9 +682,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1065,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1074,38 +1072,40 @@
     <col min="2" max="3" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="51" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B4" s="8"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="8"/>
       <c r="E6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1154,255 +1154,289 @@
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="13"/>
-      <c r="E13" s="11"/>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="13"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="54"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="57"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="75"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="75"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="57"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="76"/>
+    </row>
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="76"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="76"/>
+    </row>
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="76"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="76"/>
+    </row>
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="76"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
@@ -1498,15 +1532,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F21:I28"/>
-    <mergeCell ref="F31:I38"/>
     <mergeCell ref="A21:D28"/>
     <mergeCell ref="A31:D38"/>
     <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="F21:K28"/>
+    <mergeCell ref="F31:K38"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1528,10 +1562,10 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="80"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -1593,435 +1627,435 @@
       <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
       <c r="B21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="19"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
@@ -2066,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" activeCellId="1" sqref="A1:C1048576 G1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2222,9 +2256,9 @@
       <c r="A13" s="30"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="26"/>
@@ -2233,9 +2267,9 @@
       <c r="A14" s="30"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="26"/>
@@ -2244,9 +2278,9 @@
       <c r="A15" s="28"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="26"/>
@@ -2299,9 +2333,9 @@
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="26"/>
@@ -2310,9 +2344,9 @@
       <c r="A21" s="28"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="26"/>
@@ -2321,9 +2355,9 @@
       <c r="A22" s="28"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="26"/>
@@ -2365,9 +2399,9 @@
       <c r="A26" s="31"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="26"/>
@@ -2376,9 +2410,9 @@
       <c r="A27" s="31"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="26"/>
@@ -2387,9 +2421,9 @@
       <c r="A28" s="31"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="26"/>
@@ -2398,9 +2432,9 @@
       <c r="A29" s="31"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
       <c r="I29" s="26"/>
@@ -2409,9 +2443,9 @@
       <c r="A30" s="31"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="26"/>
@@ -2420,9 +2454,9 @@
       <c r="A31" s="31"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="26"/>
@@ -2431,9 +2465,9 @@
       <c r="A32" s="31"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="26"/>
@@ -2442,9 +2476,9 @@
       <c r="A33" s="31"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="26"/>
@@ -2453,9 +2487,9 @@
       <c r="A34" s="31"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
       <c r="I34" s="26"/>
@@ -2464,9 +2498,9 @@
       <c r="A35" s="31"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="26"/>
@@ -2475,9 +2509,9 @@
       <c r="A36" s="31"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="26"/>
@@ -2486,14 +2520,14 @@
       <c r="A37" s="31"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="26"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="31"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -2504,7 +2538,7 @@
       <c r="H38" s="19"/>
       <c r="I38" s="26"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="31"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2515,7 +2549,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="31"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -2526,7 +2560,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="26"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="31"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2537,7 +2571,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="31"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -2548,27 +2582,103 @@
       <c r="H42" s="19"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="32"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="33"/>
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="31"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="31"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="31"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="31"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="31"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="31"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="31"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="32"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D32:F37"/>
-    <mergeCell ref="D38:F43"/>
+    <mergeCell ref="D44:F51"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:F12"/>
-    <mergeCell ref="D13:F19"/>
-    <mergeCell ref="D20:F25"/>
-    <mergeCell ref="D26:F31"/>
+    <mergeCell ref="D6:F15"/>
+    <mergeCell ref="D16:F22"/>
+    <mergeCell ref="D23:F29"/>
+    <mergeCell ref="D30:F36"/>
+    <mergeCell ref="D37:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2636,8 +2746,8 @@
       <c r="A4" s="31"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="36"/>
@@ -2651,8 +2761,8 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="19"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
@@ -2714,10 +2824,10 @@
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="101"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
@@ -3047,7 +3157,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="94"/>
-      <c r="I40" s="96"/>
+      <c r="I40" s="95"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
@@ -3077,102 +3187,102 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="92"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="93"/>
       <c r="E43" s="92"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
       <c r="I43" s="93"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="92"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="93"/>
       <c r="E44" s="92"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
       <c r="I44" s="93"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="92"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="93"/>
       <c r="E45" s="92"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
       <c r="I45" s="93"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="92"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="93"/>
       <c r="E46" s="92"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
       <c r="I46" s="93"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="92"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="93"/>
       <c r="E47" s="92"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
       <c r="I47" s="93"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="92"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="93"/>
       <c r="E48" s="92"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
       <c r="I48" s="93"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="92"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="93"/>
       <c r="E49" s="92"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
       <c r="I49" s="93"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="92"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="93"/>
       <c r="E50" s="92"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
       <c r="I50" s="93"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="94"/>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="96"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="95"/>
       <c r="E51" s="94"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="96"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3255,10 +3365,10 @@
       <c r="A4" s="43"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="102"/>
+      <c r="E4" s="101"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
@@ -3270,10 +3380,10 @@
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
@@ -3281,10 +3391,10 @@
       <c r="C6" s="29"/>
       <c r="D6" s="46"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -3292,10 +3402,10 @@
       <c r="C7" s="29"/>
       <c r="D7" s="46"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="106"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="28"/>
@@ -3303,10 +3413,10 @@
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
@@ -3314,10 +3424,10 @@
       <c r="C9" s="29"/>
       <c r="D9" s="46"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="106"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
@@ -3325,10 +3435,10 @@
       <c r="C10" s="29"/>
       <c r="D10" s="46"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="106"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
@@ -3336,10 +3446,10 @@
       <c r="C11" s="29"/>
       <c r="D11" s="46"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
@@ -3347,10 +3457,10 @@
       <c r="C12" s="29"/>
       <c r="D12" s="46"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="106"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
@@ -3358,10 +3468,10 @@
       <c r="C13" s="29"/>
       <c r="D13" s="47"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
@@ -3369,10 +3479,10 @@
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
@@ -3380,10 +3490,10 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="106"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
@@ -3391,10 +3501,10 @@
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="28"/>
@@ -3402,10 +3512,10 @@
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="106"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="28"/>
@@ -3413,10 +3523,10 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="28"/>
@@ -3424,10 +3534,10 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="106"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="28"/>
@@ -3435,10 +3545,10 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="106"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="28"/>
@@ -3446,10 +3556,10 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="106"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="28"/>
@@ -3457,10 +3567,10 @@
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="106"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
@@ -3468,10 +3578,10 @@
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="28"/>
@@ -3479,10 +3589,10 @@
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="106"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
@@ -3490,10 +3600,10 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
@@ -3501,10 +3611,10 @@
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="31"/>
@@ -3512,10 +3622,10 @@
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="106"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
@@ -3523,10 +3633,10 @@
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="106"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="31"/>
@@ -3534,10 +3644,10 @@
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="106"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
@@ -3545,10 +3655,10 @@
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="106"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
@@ -3556,10 +3666,10 @@
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="106"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
@@ -3567,10 +3677,10 @@
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="106"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
@@ -3578,10 +3688,10 @@
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="31"/>
@@ -3589,10 +3699,10 @@
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="31"/>
@@ -3600,10 +3710,10 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="106"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="31"/>
@@ -3611,10 +3721,10 @@
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="31"/>
@@ -3622,10 +3732,10 @@
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="105"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="31"/>
@@ -3633,10 +3743,10 @@
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="105"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="31"/>
@@ -3644,10 +3754,10 @@
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="105"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="31"/>
@@ -3655,10 +3765,10 @@
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="106"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="105"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="31"/>
@@ -3666,10 +3776,10 @@
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="106"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="105"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="31"/>
@@ -3677,10 +3787,10 @@
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="105"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="31"/>
@@ -3688,10 +3798,10 @@
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="105"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="28"/>
@@ -3699,10 +3809,10 @@
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="105"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
@@ -3710,10 +3820,10 @@
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="106"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="105"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
@@ -3721,10 +3831,10 @@
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="106"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="28"/>
@@ -3732,10 +3842,10 @@
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="106"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="105"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="28"/>
@@ -3743,10 +3853,10 @@
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="106"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="105"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="28"/>
@@ -3754,10 +3864,10 @@
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="105"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="31"/>
@@ -3765,10 +3875,10 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="106"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="105"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="32"/>
@@ -3776,10 +3886,10 @@
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="108"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="3">
